--- a/spatial_stroop_trial_info_list.xlsx
+++ b/spatial_stroop_trial_info_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/web/Pokemon Task web/trial list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/asarraf_student_unimelb_edu_au/Documents/Documents/Task/Spatial Stroop Pokemon/Pokemon Task web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B138845F-FB07-42E7-A737-4C0623B94CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2E6F5F-F065-4F72-9FEE-F8AD0503A45F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B138845F-FB07-42E7-A737-4C0623B94CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F2454C-70FC-487E-9C07-CA41337150B5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,64 +109,64 @@
     <t>[0.35,0]</t>
   </si>
   <si>
-    <t>stimuli/1.bmp</t>
+    <t>stimuli/1.png</t>
   </si>
   <si>
-    <t>stimuli/11.bmp</t>
+    <t>stimuli/11.png</t>
   </si>
   <si>
-    <t>stimuli/12.bmp</t>
+    <t>stimuli/12.png</t>
   </si>
   <si>
-    <t>stimuli/5.bmp</t>
+    <t>stimuli/5.png</t>
   </si>
   <si>
-    <t>stimuli/20.bmp</t>
+    <t>stimuli/20.png</t>
   </si>
   <si>
-    <t>stimuli/4.bmp</t>
+    <t>stimuli/4.png</t>
   </si>
   <si>
-    <t>stimuli/2.bmp</t>
+    <t>stimuli/2.png</t>
   </si>
   <si>
-    <t>stimuli/18.bmp</t>
+    <t>stimuli/18.png</t>
   </si>
   <si>
-    <t>stimuli/8.bmp</t>
+    <t>stimuli/8.png</t>
   </si>
   <si>
-    <t>stimuli/17.bmp</t>
+    <t>stimuli/17.png</t>
   </si>
   <si>
-    <t>stimuli/14.bmp</t>
+    <t>stimuli/14.png</t>
   </si>
   <si>
-    <t>stimuli/9.bmp</t>
+    <t>stimuli/9.png</t>
   </si>
   <si>
-    <t>stimuli/6.bmp</t>
+    <t>stimuli/6.png</t>
   </si>
   <si>
-    <t>stimuli/3.bmp</t>
+    <t>stimuli/3.png</t>
   </si>
   <si>
-    <t>stimuli/15.bmp</t>
+    <t>stimuli/15.png</t>
   </si>
   <si>
-    <t>stimuli/7.bmp</t>
+    <t>stimuli/7.png</t>
   </si>
   <si>
-    <t>stimuli/10.bmp</t>
+    <t>stimuli/10.png</t>
   </si>
   <si>
-    <t>stimuli/16.bmp</t>
+    <t>stimuli/16.png</t>
   </si>
   <si>
-    <t>stimuli/13.bmp</t>
+    <t>stimuli/13.png</t>
   </si>
   <si>
-    <t>stimuli/19.bmp</t>
+    <t>stimuli/19.png</t>
   </si>
 </sst>
 </file>
@@ -230,6 +230,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
